--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>MEM001</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>MEM001;MEM002</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,44 +439,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -49,7 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>MEM001;MEM002</t>
+    <t>MEM001;MEM001</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -40,16 +40,16 @@
     <t>MemberPayment</t>
   </si>
   <si>
-    <t>MEM002,MEM003,TRN002</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>MEM001;MEM001</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN002</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -462,12 +462,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -49,7 +49,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN002</t>
+    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN001</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -46,10 +46,10 @@
     <t>yes</t>
   </si>
   <si>
+    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN001</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN001</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -46,10 +46,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TRN002;MEM006,MEM005,TRN001</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>MEM005,MEM006,TXN002;MEM006,MEM005,TXN001</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -34,12 +34,6 @@
     <t>TEST_DATA</t>
   </si>
   <si>
-    <t>EnrollMember</t>
-  </si>
-  <si>
-    <t>MemberPayment</t>
-  </si>
-  <si>
     <t>MEM001;MEM001</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>MEM005,MEM006,TXN002;MEM006,MEM005,TXN001</t>
+  </si>
+  <si>
+    <t>MemberPayments</t>
+  </si>
+  <si>
+    <t>EnrollNewMember</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,30 +453,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TC_ID</t>
   </si>
@@ -43,19 +43,22 @@
     <t>no</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TXN002;MEM006,MEM005,TXN001</t>
-  </si>
-  <si>
     <t>MemberPayments</t>
   </si>
   <si>
     <t>EnrollNewMember</t>
+  </si>
+  <si>
+    <t>MEM005,MEM006,TXN002</t>
+  </si>
+  <si>
+    <t>MEM006,MEM005,TXN001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -459,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -473,10 +476,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -34,9 +34,6 @@
     <t>TEST_DATA</t>
   </si>
   <si>
-    <t>MEM001;MEM001</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>EnrollNewMember</t>
+  </si>
+  <si>
+    <t>MEM004,MEM001;MEM004,MEM001</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,16 +453,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TC_ID</t>
   </si>
@@ -49,10 +49,7 @@
     <t>EnrollNewMember</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TXN002</t>
-  </si>
-  <si>
-    <t>MEM006,MEM005,TXN001</t>
+    <t>MEM005,MEM008,TXN003</t>
   </si>
 </sst>
 </file>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +437,7 @@
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -468,7 +465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -480,9 +477,6 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -34,9 +34,6 @@
     <t>TEST_DATA</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>MEM004,MEM001;MEM004,MEM001</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -426,57 +426,57 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -34,12 +34,6 @@
     <t>TEST_DATA</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>MEM005,MEM006,TXN002;MEM006,MEM005,TXN001</t>
-  </si>
-  <si>
     <t>MemberPayments</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>MEM005,MEM006,TXN002;MEM006,MEM008,TXN003</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestCaseSheet.xlsx
+++ b/Resources/TestCaseSheet.xlsx
@@ -49,7 +49,7 @@
     <t>EnrollNewMember</t>
   </si>
   <si>
-    <t>MEM005,MEM008,TXN003</t>
+    <t>MEM005,MEM008</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
